--- a/SimpO_test.xlsx
+++ b/SimpO_test.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SimpO_HTTT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964441F3-6B83-4813-AD95-22B0BB832F7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="265">
   <si>
     <t>KHỞI ĐỘNG</t>
   </si>
@@ -827,12 +826,27 @@
   <si>
     <t>Vua Trần Nhân Tông.</t>
   </si>
+  <si>
+    <t>ảnhcnv.png</t>
+  </si>
+  <si>
+    <t>tt1.png</t>
+  </si>
+  <si>
+    <t>tt2.png</t>
+  </si>
+  <si>
+    <t>tt3.png</t>
+  </si>
+  <si>
+    <t>tt4.mp4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1626,6 +1640,90 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1644,101 +1742,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2019,14 +2033,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I65" sqref="I65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="48.875" style="1" customWidth="1"/>
@@ -2050,115 +2064,115 @@
     <col min="20" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="78" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="68" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="79"/>
-      <c r="B2" s="79"/>
-      <c r="C2" s="79"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="79"/>
-      <c r="B3" s="79"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="79"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="79"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="79"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-    </row>
-    <row r="6" spans="1:9" ht="16.5" thickBot="1"/>
-    <row r="7" spans="1:9" ht="22.7" customHeight="1">
-      <c r="A7" s="72" t="s">
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="69"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="69"/>
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+    </row>
+    <row r="6" spans="1:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="73"/>
-      <c r="C7" s="73"/>
-      <c r="D7" s="73"/>
-      <c r="E7" s="73"/>
-      <c r="F7" s="73"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="73"/>
-      <c r="I7" s="74"/>
-    </row>
-    <row r="8" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
-      <c r="A8" s="75"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="93"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="93"/>
-      <c r="H8" s="93"/>
-      <c r="I8" s="94"/>
-    </row>
-    <row r="9" spans="1:9" ht="22.7" customHeight="1">
+      <c r="B7" s="80"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="81"/>
+    </row>
+    <row r="8" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="82"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="97"/>
+      <c r="H8" s="97"/>
+      <c r="I8" s="98"/>
+    </row>
+    <row r="9" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14"/>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="91"/>
       <c r="E9" s="15"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="61" t="s">
+      <c r="G9" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="H9" s="62"/>
-      <c r="I9" s="63"/>
-    </row>
-    <row r="10" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
+      <c r="H9" s="90"/>
+      <c r="I9" s="91"/>
+    </row>
+    <row r="10" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="94"/>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="65"/>
-      <c r="I10" s="66"/>
-    </row>
-    <row r="11" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
+      <c r="G10" s="92"/>
+      <c r="H10" s="93"/>
+      <c r="I10" s="94"/>
+    </row>
+    <row r="11" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
         <v>5</v>
@@ -2181,7 +2195,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="22.7" customHeight="1">
+    <row r="12" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2204,7 +2218,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="1:9" ht="22.7" customHeight="1">
+    <row r="13" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>2</v>
       </c>
@@ -2227,7 +2241,7 @@
       </c>
       <c r="I13" s="25"/>
     </row>
-    <row r="14" spans="1:9" ht="22.7" customHeight="1">
+    <row r="14" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>3</v>
       </c>
@@ -2250,7 +2264,7 @@
       </c>
       <c r="I14" s="25"/>
     </row>
-    <row r="15" spans="1:9" ht="22.7" customHeight="1">
+    <row r="15" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>4</v>
       </c>
@@ -2273,7 +2287,7 @@
       </c>
       <c r="I15" s="25"/>
     </row>
-    <row r="16" spans="1:9" ht="22.7" customHeight="1">
+    <row r="16" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>5</v>
       </c>
@@ -2296,7 +2310,7 @@
       </c>
       <c r="I16" s="25"/>
     </row>
-    <row r="17" spans="1:9" ht="22.7" customHeight="1">
+    <row r="17" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>6</v>
       </c>
@@ -2319,7 +2333,7 @@
       </c>
       <c r="I17" s="25"/>
     </row>
-    <row r="18" spans="1:9" ht="22.7" customHeight="1">
+    <row r="18" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>7</v>
       </c>
@@ -2342,7 +2356,7 @@
       </c>
       <c r="I18" s="25"/>
     </row>
-    <row r="19" spans="1:9" ht="22.7" customHeight="1">
+    <row r="19" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>8</v>
       </c>
@@ -2365,7 +2379,7 @@
       </c>
       <c r="I19" s="25"/>
     </row>
-    <row r="20" spans="1:9" ht="22.7" customHeight="1">
+    <row r="20" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>9</v>
       </c>
@@ -2388,7 +2402,7 @@
       </c>
       <c r="I20" s="25"/>
     </row>
-    <row r="21" spans="1:9" ht="22.7" customHeight="1">
+    <row r="21" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>10</v>
       </c>
@@ -2403,7 +2417,7 @@
       <c r="F21" s="8">
         <v>10</v>
       </c>
-      <c r="G21" s="95" t="s">
+      <c r="G21" s="61" t="s">
         <v>61</v>
       </c>
       <c r="H21" s="24" t="s">
@@ -2411,7 +2425,7 @@
       </c>
       <c r="I21" s="25"/>
     </row>
-    <row r="22" spans="1:9" ht="22.7" customHeight="1">
+    <row r="22" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>11</v>
       </c>
@@ -2434,7 +2448,7 @@
       </c>
       <c r="I22" s="25"/>
     </row>
-    <row r="23" spans="1:9" ht="22.7" customHeight="1">
+    <row r="23" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>12</v>
       </c>
@@ -2457,7 +2471,7 @@
       </c>
       <c r="I23" s="25"/>
     </row>
-    <row r="24" spans="1:9" ht="22.7" customHeight="1">
+    <row r="24" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>13</v>
       </c>
@@ -2480,7 +2494,7 @@
       </c>
       <c r="I24" s="25"/>
     </row>
-    <row r="25" spans="1:9" ht="22.7" customHeight="1">
+    <row r="25" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>14</v>
       </c>
@@ -2503,7 +2517,7 @@
       </c>
       <c r="I25" s="25"/>
     </row>
-    <row r="26" spans="1:9" ht="22.7" customHeight="1">
+    <row r="26" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>15</v>
       </c>
@@ -2526,7 +2540,7 @@
       </c>
       <c r="I26" s="25"/>
     </row>
-    <row r="27" spans="1:9" ht="22.7" customHeight="1">
+    <row r="27" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>16</v>
       </c>
@@ -2549,7 +2563,7 @@
       </c>
       <c r="I27" s="25"/>
     </row>
-    <row r="28" spans="1:9" ht="22.7" customHeight="1">
+    <row r="28" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>17</v>
       </c>
@@ -2572,7 +2586,7 @@
       </c>
       <c r="I28" s="25"/>
     </row>
-    <row r="29" spans="1:9" ht="22.7" customHeight="1">
+    <row r="29" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>18</v>
       </c>
@@ -2595,7 +2609,7 @@
       </c>
       <c r="I29" s="25"/>
     </row>
-    <row r="30" spans="1:9" ht="22.7" customHeight="1">
+    <row r="30" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>19</v>
       </c>
@@ -2618,7 +2632,7 @@
       </c>
       <c r="I30" s="25"/>
     </row>
-    <row r="31" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
+    <row r="31" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>20</v>
       </c>
@@ -2641,7 +2655,7 @@
       </c>
       <c r="I31" s="28"/>
     </row>
-    <row r="32" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
+    <row r="32" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2652,33 +2666,33 @@
       <c r="H32" s="8"/>
       <c r="I32" s="11"/>
     </row>
-    <row r="33" spans="1:9" ht="22.7" customHeight="1">
+    <row r="33" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
-      <c r="G33" s="61" t="s">
+      <c r="G33" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="H33" s="62"/>
-      <c r="I33" s="63"/>
-    </row>
-    <row r="34" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
+      <c r="H33" s="90"/>
+      <c r="I33" s="91"/>
+    </row>
+    <row r="34" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
+      <c r="B34" s="92"/>
+      <c r="C34" s="93"/>
+      <c r="D34" s="94"/>
       <c r="E34" s="3"/>
       <c r="F34" s="8"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="65"/>
-      <c r="I34" s="66"/>
-    </row>
-    <row r="35" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
+      <c r="G34" s="92"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="94"/>
+    </row>
+    <row r="35" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="5" t="s">
         <v>5</v>
@@ -2701,7 +2715,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="22.7" customHeight="1">
+    <row r="36" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -2724,7 +2738,7 @@
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="1:9" ht="22.7" customHeight="1">
+    <row r="37" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>2</v>
       </c>
@@ -2747,7 +2761,7 @@
       </c>
       <c r="I37" s="25"/>
     </row>
-    <row r="38" spans="1:9" ht="22.7" customHeight="1">
+    <row r="38" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>3</v>
       </c>
@@ -2770,7 +2784,7 @@
       </c>
       <c r="I38" s="25"/>
     </row>
-    <row r="39" spans="1:9" ht="22.7" customHeight="1">
+    <row r="39" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>4</v>
       </c>
@@ -2793,7 +2807,7 @@
       </c>
       <c r="I39" s="25"/>
     </row>
-    <row r="40" spans="1:9" ht="22.7" customHeight="1">
+    <row r="40" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>5</v>
       </c>
@@ -2816,7 +2830,7 @@
       </c>
       <c r="I40" s="25"/>
     </row>
-    <row r="41" spans="1:9" ht="22.7" customHeight="1">
+    <row r="41" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>6</v>
       </c>
@@ -2839,7 +2853,7 @@
       </c>
       <c r="I41" s="25"/>
     </row>
-    <row r="42" spans="1:9" ht="22.7" customHeight="1">
+    <row r="42" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>7</v>
       </c>
@@ -2862,7 +2876,7 @@
       </c>
       <c r="I42" s="25"/>
     </row>
-    <row r="43" spans="1:9" ht="22.7" customHeight="1">
+    <row r="43" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>8</v>
       </c>
@@ -2885,7 +2899,7 @@
       </c>
       <c r="I43" s="25"/>
     </row>
-    <row r="44" spans="1:9" ht="22.7" customHeight="1">
+    <row r="44" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>9</v>
       </c>
@@ -2908,7 +2922,7 @@
       </c>
       <c r="I44" s="25"/>
     </row>
-    <row r="45" spans="1:9" ht="22.7" customHeight="1">
+    <row r="45" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>10</v>
       </c>
@@ -2931,7 +2945,7 @@
       </c>
       <c r="I45" s="25"/>
     </row>
-    <row r="46" spans="1:9" ht="22.7" customHeight="1">
+    <row r="46" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>11</v>
       </c>
@@ -2954,7 +2968,7 @@
       </c>
       <c r="I46" s="25"/>
     </row>
-    <row r="47" spans="1:9" ht="22.7" customHeight="1">
+    <row r="47" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>12</v>
       </c>
@@ -2977,7 +2991,7 @@
       </c>
       <c r="I47" s="25"/>
     </row>
-    <row r="48" spans="1:9" ht="22.7" customHeight="1">
+    <row r="48" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>13</v>
       </c>
@@ -3000,7 +3014,7 @@
       </c>
       <c r="I48" s="25"/>
     </row>
-    <row r="49" spans="1:14" ht="22.7" customHeight="1">
+    <row r="49" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>14</v>
       </c>
@@ -3023,7 +3037,7 @@
       </c>
       <c r="I49" s="25"/>
     </row>
-    <row r="50" spans="1:14" ht="22.7" customHeight="1">
+    <row r="50" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>15</v>
       </c>
@@ -3046,7 +3060,7 @@
       </c>
       <c r="I50" s="25"/>
     </row>
-    <row r="51" spans="1:14" ht="22.7" customHeight="1">
+    <row r="51" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>16</v>
       </c>
@@ -3069,7 +3083,7 @@
       </c>
       <c r="I51" s="25"/>
     </row>
-    <row r="52" spans="1:14" ht="22.7" customHeight="1">
+    <row r="52" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>17</v>
       </c>
@@ -3096,7 +3110,7 @@
       <c r="M52" s="46"/>
       <c r="N52" s="46"/>
     </row>
-    <row r="53" spans="1:14" ht="22.7" customHeight="1">
+    <row r="53" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>18</v>
       </c>
@@ -3123,7 +3137,7 @@
       <c r="M53" s="46"/>
       <c r="N53" s="46"/>
     </row>
-    <row r="54" spans="1:14" ht="22.7" customHeight="1">
+    <row r="54" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>19</v>
       </c>
@@ -3150,7 +3164,7 @@
       <c r="M54" s="46"/>
       <c r="N54" s="46"/>
     </row>
-    <row r="55" spans="1:14" ht="22.7" customHeight="1" thickBot="1">
+    <row r="55" spans="1:14" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="12">
         <v>20</v>
       </c>
@@ -3177,7 +3191,7 @@
       <c r="M55" s="46"/>
       <c r="N55" s="46"/>
     </row>
-    <row r="56" spans="1:14" ht="22.7" customHeight="1">
+    <row r="56" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="47"/>
       <c r="C56" s="47"/>
@@ -3192,7 +3206,7 @@
       <c r="M56" s="46"/>
       <c r="N56" s="46"/>
     </row>
-    <row r="57" spans="1:14" ht="22.7" customHeight="1" thickBot="1">
+    <row r="57" spans="1:14" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="8"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -3203,39 +3217,39 @@
       <c r="H57" s="8"/>
       <c r="I57" s="8"/>
     </row>
-    <row r="58" spans="1:14" ht="22.7" customHeight="1">
-      <c r="A58" s="72" t="s">
+    <row r="58" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="80"/>
-      <c r="C58" s="80"/>
-      <c r="D58" s="81"/>
-      <c r="F58" s="72" t="s">
+      <c r="B58" s="71"/>
+      <c r="C58" s="71"/>
+      <c r="D58" s="72"/>
+      <c r="F58" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="G58" s="73"/>
-      <c r="H58" s="73"/>
-      <c r="I58" s="74"/>
-    </row>
-    <row r="59" spans="1:14" ht="22.7" customHeight="1" thickBot="1">
-      <c r="A59" s="82"/>
-      <c r="B59" s="83"/>
-      <c r="C59" s="83"/>
-      <c r="D59" s="84"/>
-      <c r="F59" s="75"/>
-      <c r="G59" s="76"/>
-      <c r="H59" s="76"/>
-      <c r="I59" s="77"/>
-    </row>
-    <row r="60" spans="1:14" ht="22.7" customHeight="1" thickBot="1">
-      <c r="A60" s="89" t="s">
+      <c r="G58" s="80"/>
+      <c r="H58" s="80"/>
+      <c r="I58" s="81"/>
+    </row>
+    <row r="59" spans="1:14" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="73"/>
+      <c r="B59" s="74"/>
+      <c r="C59" s="74"/>
+      <c r="D59" s="75"/>
+      <c r="F59" s="82"/>
+      <c r="G59" s="83"/>
+      <c r="H59" s="83"/>
+      <c r="I59" s="84"/>
+    </row>
+    <row r="60" spans="1:14" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="90"/>
-      <c r="C60" s="91" t="s">
+      <c r="B60" s="86"/>
+      <c r="C60" s="87" t="s">
         <v>28</v>
       </c>
-      <c r="D60" s="92"/>
+      <c r="D60" s="88"/>
       <c r="F60" s="48" t="s">
         <v>8</v>
       </c>
@@ -3249,13 +3263,15 @@
         <v>7</v>
       </c>
     </row>
-    <row r="61" spans="1:14" ht="22.7" customHeight="1" thickBot="1">
-      <c r="A61" s="85" t="s">
+    <row r="61" spans="1:14" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="B61" s="86"/>
-      <c r="C61" s="87"/>
-      <c r="D61" s="88"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="78" t="s">
+        <v>260</v>
+      </c>
+      <c r="D61" s="79"/>
       <c r="F61" s="49">
         <v>1</v>
       </c>
@@ -3265,9 +3281,11 @@
       <c r="H61" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="I61" s="22"/>
-    </row>
-    <row r="62" spans="1:14" ht="22.7" customHeight="1" thickBot="1">
+      <c r="I61" s="22" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="55" t="s">
         <v>15</v>
       </c>
@@ -3289,9 +3307,11 @@
       <c r="H62" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="I62" s="25"/>
-    </row>
-    <row r="63" spans="1:14" ht="22.7" customHeight="1">
+      <c r="I62" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="49">
         <v>1</v>
       </c>
@@ -3311,9 +3331,11 @@
       <c r="H63" s="40">
         <v>4</v>
       </c>
-      <c r="I63" s="25"/>
-    </row>
-    <row r="64" spans="1:14" ht="22.7" customHeight="1" thickBot="1">
+      <c r="I63" s="25" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="50">
         <v>2</v>
       </c>
@@ -3333,9 +3355,11 @@
       <c r="H64" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="I64" s="28"/>
-    </row>
-    <row r="65" spans="1:9" ht="22.7" customHeight="1">
+      <c r="I64" s="28" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="50">
         <v>3</v>
       </c>
@@ -3347,7 +3371,7 @@
       </c>
       <c r="D65" s="30"/>
     </row>
-    <row r="66" spans="1:9" ht="22.7" customHeight="1">
+    <row r="66" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="50">
         <v>4</v>
       </c>
@@ -3359,7 +3383,7 @@
       </c>
       <c r="D66" s="30"/>
     </row>
-    <row r="67" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
+    <row r="67" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="51" t="s">
         <v>8</v>
       </c>
@@ -3371,66 +3395,66 @@
       </c>
       <c r="D67" s="31"/>
     </row>
-    <row r="68" spans="1:9" ht="22.7" customHeight="1">
+    <row r="68" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="57"/>
       <c r="B68" s="58"/>
       <c r="C68" s="58"/>
       <c r="D68" s="58"/>
     </row>
-    <row r="69" spans="1:9" ht="22.7" customHeight="1"/>
-    <row r="70" spans="1:9" ht="22.7" customHeight="1"/>
-    <row r="71" spans="1:9" ht="22.7" customHeight="1" thickBot="1"/>
-    <row r="72" spans="1:9" ht="22.7" customHeight="1">
-      <c r="A72" s="72" t="s">
+    <row r="69" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="72" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B72" s="73"/>
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="74"/>
-    </row>
-    <row r="73" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
-      <c r="A73" s="75"/>
-      <c r="B73" s="76"/>
-      <c r="C73" s="76"/>
-      <c r="D73" s="76"/>
-      <c r="E73" s="76"/>
-      <c r="F73" s="76"/>
-      <c r="G73" s="76"/>
-      <c r="H73" s="76"/>
-      <c r="I73" s="77"/>
-    </row>
-    <row r="74" spans="1:9" ht="22.7" customHeight="1">
+      <c r="B72" s="80"/>
+      <c r="C72" s="80"/>
+      <c r="D72" s="80"/>
+      <c r="E72" s="80"/>
+      <c r="F72" s="80"/>
+      <c r="G72" s="80"/>
+      <c r="H72" s="80"/>
+      <c r="I72" s="81"/>
+    </row>
+    <row r="73" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="82"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
+      <c r="G73" s="83"/>
+      <c r="H73" s="83"/>
+      <c r="I73" s="84"/>
+    </row>
+    <row r="74" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
-      <c r="B74" s="61" t="s">
+      <c r="B74" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="62"/>
-      <c r="D74" s="63"/>
+      <c r="C74" s="90"/>
+      <c r="D74" s="91"/>
       <c r="E74" s="3"/>
       <c r="F74" s="4"/>
-      <c r="G74" s="61" t="s">
+      <c r="G74" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="H74" s="62"/>
-      <c r="I74" s="63"/>
-    </row>
-    <row r="75" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
+      <c r="H74" s="90"/>
+      <c r="I74" s="91"/>
+    </row>
+    <row r="75" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="2"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="66"/>
+      <c r="B75" s="92"/>
+      <c r="C75" s="93"/>
+      <c r="D75" s="94"/>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="65"/>
-      <c r="I75" s="66"/>
-    </row>
-    <row r="76" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
+      <c r="G75" s="92"/>
+      <c r="H75" s="93"/>
+      <c r="I75" s="94"/>
+    </row>
+    <row r="76" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="2"/>
       <c r="B76" s="5" t="s">
         <v>5</v>
@@ -3453,8 +3477,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="22.7" customHeight="1">
-      <c r="A77" s="71" t="s">
+    <row r="77" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="96" t="s">
         <v>10</v>
       </c>
       <c r="B77" s="43" t="s">
@@ -3465,7 +3489,7 @@
       </c>
       <c r="D77" s="45"/>
       <c r="E77" s="11"/>
-      <c r="F77" s="71" t="s">
+      <c r="F77" s="96" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="43" t="s">
@@ -3476,8 +3500,8 @@
       </c>
       <c r="I77" s="45"/>
     </row>
-    <row r="78" spans="1:9" ht="22.7" customHeight="1">
-      <c r="A78" s="68"/>
+    <row r="78" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="66"/>
       <c r="B78" s="23" t="s">
         <v>212</v>
       </c>
@@ -3486,7 +3510,7 @@
       </c>
       <c r="D78" s="25"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="68"/>
+      <c r="F78" s="66"/>
       <c r="G78" s="23" t="s">
         <v>73</v>
       </c>
@@ -3495,8 +3519,8 @@
       </c>
       <c r="I78" s="25"/>
     </row>
-    <row r="79" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
-      <c r="A79" s="70"/>
+    <row r="79" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="95"/>
       <c r="B79" s="26" t="s">
         <v>214</v>
       </c>
@@ -3505,7 +3529,7 @@
       </c>
       <c r="D79" s="28"/>
       <c r="E79" s="11"/>
-      <c r="F79" s="70"/>
+      <c r="F79" s="95"/>
       <c r="G79" s="26" t="s">
         <v>76</v>
       </c>
@@ -3514,8 +3538,8 @@
       </c>
       <c r="I79" s="28"/>
     </row>
-    <row r="80" spans="1:9" ht="22.7" customHeight="1">
-      <c r="A80" s="67" t="s">
+    <row r="80" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="65" t="s">
         <v>11</v>
       </c>
       <c r="B80" s="43" t="s">
@@ -3526,7 +3550,7 @@
       </c>
       <c r="D80" s="45"/>
       <c r="E80" s="11"/>
-      <c r="F80" s="67" t="s">
+      <c r="F80" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G80" s="23" t="s">
@@ -3537,8 +3561,8 @@
       </c>
       <c r="I80" s="45"/>
     </row>
-    <row r="81" spans="1:9" ht="22.7" customHeight="1">
-      <c r="A81" s="68"/>
+    <row r="81" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="66"/>
       <c r="B81" s="23" t="s">
         <v>217</v>
       </c>
@@ -3547,7 +3571,7 @@
       </c>
       <c r="D81" s="25"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="68"/>
+      <c r="F81" s="66"/>
       <c r="G81" s="23" t="s">
         <v>19</v>
       </c>
@@ -3556,8 +3580,8 @@
       </c>
       <c r="I81" s="25"/>
     </row>
-    <row r="82" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
-      <c r="A82" s="70"/>
+    <row r="82" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="95"/>
       <c r="B82" s="26" t="s">
         <v>219</v>
       </c>
@@ -3566,7 +3590,7 @@
       </c>
       <c r="D82" s="28"/>
       <c r="E82" s="11"/>
-      <c r="F82" s="70"/>
+      <c r="F82" s="95"/>
       <c r="G82" s="26" t="s">
         <v>65</v>
       </c>
@@ -3575,19 +3599,19 @@
       </c>
       <c r="I82" s="28"/>
     </row>
-    <row r="83" spans="1:9" ht="22.7" customHeight="1">
-      <c r="A83" s="67" t="s">
+    <row r="83" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="65" t="s">
         <v>12</v>
       </c>
       <c r="B83" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="C83" s="97">
+      <c r="C83" s="63">
         <v>0.64</v>
       </c>
       <c r="D83" s="22"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="67" t="s">
+      <c r="F83" s="65" t="s">
         <v>12</v>
       </c>
       <c r="G83" s="43" t="s">
@@ -3598,8 +3622,8 @@
       </c>
       <c r="I83" s="45"/>
     </row>
-    <row r="84" spans="1:9" ht="22.7" customHeight="1">
-      <c r="A84" s="68"/>
+    <row r="84" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="66"/>
       <c r="B84" s="23" t="s">
         <v>222</v>
       </c>
@@ -3608,17 +3632,17 @@
       </c>
       <c r="D84" s="25"/>
       <c r="E84" s="11"/>
-      <c r="F84" s="68"/>
+      <c r="F84" s="66"/>
       <c r="G84" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H84" s="96" t="s">
+      <c r="H84" s="62" t="s">
         <v>68</v>
       </c>
       <c r="I84" s="25"/>
     </row>
-    <row r="85" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
-      <c r="A85" s="69"/>
+    <row r="85" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="67"/>
       <c r="B85" s="26" t="s">
         <v>224</v>
       </c>
@@ -3627,7 +3651,7 @@
       </c>
       <c r="D85" s="28"/>
       <c r="E85" s="11"/>
-      <c r="F85" s="69"/>
+      <c r="F85" s="67"/>
       <c r="G85" s="26" t="s">
         <v>69</v>
       </c>
@@ -3636,7 +3660,7 @@
       </c>
       <c r="I85" s="28"/>
     </row>
-    <row r="86" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
+    <row r="86" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="2"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -3647,33 +3671,33 @@
       <c r="H86" s="8"/>
       <c r="I86" s="11"/>
     </row>
-    <row r="87" spans="1:9" ht="22.7" customHeight="1">
+    <row r="87" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
-      <c r="B87" s="61" t="s">
+      <c r="B87" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="C87" s="62"/>
-      <c r="D87" s="63"/>
+      <c r="C87" s="90"/>
+      <c r="D87" s="91"/>
       <c r="E87" s="3"/>
       <c r="F87" s="8"/>
-      <c r="G87" s="61" t="s">
+      <c r="G87" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="H87" s="62"/>
-      <c r="I87" s="63"/>
-    </row>
-    <row r="88" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
+      <c r="H87" s="90"/>
+      <c r="I87" s="91"/>
+    </row>
+    <row r="88" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="2"/>
-      <c r="B88" s="64"/>
-      <c r="C88" s="65"/>
-      <c r="D88" s="66"/>
+      <c r="B88" s="92"/>
+      <c r="C88" s="93"/>
+      <c r="D88" s="94"/>
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
-      <c r="G88" s="64"/>
-      <c r="H88" s="65"/>
-      <c r="I88" s="66"/>
-    </row>
-    <row r="89" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
+      <c r="G88" s="92"/>
+      <c r="H88" s="93"/>
+      <c r="I88" s="94"/>
+    </row>
+    <row r="89" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="2"/>
       <c r="B89" s="16" t="s">
         <v>5</v>
@@ -3696,8 +3720,8 @@
         <v>7</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="22.7" customHeight="1">
-      <c r="A90" s="71" t="s">
+    <row r="90" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="96" t="s">
         <v>10</v>
       </c>
       <c r="B90" s="43" t="s">
@@ -3708,7 +3732,7 @@
       </c>
       <c r="D90" s="45"/>
       <c r="E90" s="11"/>
-      <c r="F90" s="71" t="s">
+      <c r="F90" s="96" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="43" t="s">
@@ -3719,8 +3743,8 @@
       </c>
       <c r="I90" s="45"/>
     </row>
-    <row r="91" spans="1:9" ht="22.7" customHeight="1">
-      <c r="A91" s="68"/>
+    <row r="91" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="66"/>
       <c r="B91" s="23" t="s">
         <v>230</v>
       </c>
@@ -3729,7 +3753,7 @@
       </c>
       <c r="D91" s="25"/>
       <c r="E91" s="11"/>
-      <c r="F91" s="68"/>
+      <c r="F91" s="66"/>
       <c r="G91" s="23" t="s">
         <v>251</v>
       </c>
@@ -3738,8 +3762,8 @@
       </c>
       <c r="I91" s="25"/>
     </row>
-    <row r="92" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
-      <c r="A92" s="70"/>
+    <row r="92" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="95"/>
       <c r="B92" s="26" t="s">
         <v>231</v>
       </c>
@@ -3748,7 +3772,7 @@
       </c>
       <c r="D92" s="28"/>
       <c r="E92" s="11"/>
-      <c r="F92" s="70"/>
+      <c r="F92" s="95"/>
       <c r="G92" s="26" t="s">
         <v>253</v>
       </c>
@@ -3757,8 +3781,8 @@
       </c>
       <c r="I92" s="28"/>
     </row>
-    <row r="93" spans="1:9" ht="22.7" customHeight="1">
-      <c r="A93" s="67" t="s">
+    <row r="93" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="65" t="s">
         <v>11</v>
       </c>
       <c r="B93" s="43" t="s">
@@ -3769,7 +3793,7 @@
       </c>
       <c r="D93" s="45"/>
       <c r="E93" s="11"/>
-      <c r="F93" s="67" t="s">
+      <c r="F93" s="65" t="s">
         <v>11</v>
       </c>
       <c r="G93" s="43" t="s">
@@ -3780,8 +3804,8 @@
       </c>
       <c r="I93" s="45"/>
     </row>
-    <row r="94" spans="1:9" ht="22.7" customHeight="1">
-      <c r="A94" s="68"/>
+    <row r="94" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="66"/>
       <c r="B94" s="23" t="s">
         <v>237</v>
       </c>
@@ -3790,7 +3814,7 @@
       </c>
       <c r="D94" s="25"/>
       <c r="E94" s="11"/>
-      <c r="F94" s="68"/>
+      <c r="F94" s="66"/>
       <c r="G94" s="23" t="s">
         <v>241</v>
       </c>
@@ -3799,8 +3823,8 @@
       </c>
       <c r="I94" s="25"/>
     </row>
-    <row r="95" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
-      <c r="A95" s="70"/>
+    <row r="95" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="95"/>
       <c r="B95" s="26" t="s">
         <v>239</v>
       </c>
@@ -3809,7 +3833,7 @@
       </c>
       <c r="D95" s="28"/>
       <c r="E95" s="11"/>
-      <c r="F95" s="70"/>
+      <c r="F95" s="95"/>
       <c r="G95" s="26" t="s">
         <v>247</v>
       </c>
@@ -3818,8 +3842,8 @@
       </c>
       <c r="I95" s="28"/>
     </row>
-    <row r="96" spans="1:9" ht="22.7" customHeight="1">
-      <c r="A96" s="67" t="s">
+    <row r="96" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="65" t="s">
         <v>12</v>
       </c>
       <c r="B96" s="59" t="s">
@@ -3830,7 +3854,7 @@
       </c>
       <c r="D96" s="45"/>
       <c r="E96" s="11"/>
-      <c r="F96" s="67" t="s">
+      <c r="F96" s="65" t="s">
         <v>12</v>
       </c>
       <c r="G96" s="43" t="s">
@@ -3841,8 +3865,8 @@
       </c>
       <c r="I96" s="45"/>
     </row>
-    <row r="97" spans="1:9" ht="22.7" customHeight="1">
-      <c r="A97" s="68"/>
+    <row r="97" spans="1:9" ht="22.7" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="66"/>
       <c r="B97" s="23" t="s">
         <v>243</v>
       </c>
@@ -3851,7 +3875,7 @@
       </c>
       <c r="D97" s="25"/>
       <c r="E97" s="11"/>
-      <c r="F97" s="68"/>
+      <c r="F97" s="66"/>
       <c r="G97" s="23" t="s">
         <v>256</v>
       </c>
@@ -3860,8 +3884,8 @@
       </c>
       <c r="I97" s="25"/>
     </row>
-    <row r="98" spans="1:9" ht="22.7" customHeight="1" thickBot="1">
-      <c r="A98" s="69"/>
+    <row r="98" spans="1:9" ht="22.7" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="67"/>
       <c r="B98" s="26" t="s">
         <v>245</v>
       </c>
@@ -3870,8 +3894,8 @@
       </c>
       <c r="D98" s="28"/>
       <c r="E98" s="19"/>
-      <c r="F98" s="69"/>
-      <c r="G98" s="98" t="s">
+      <c r="F98" s="67"/>
+      <c r="G98" s="64" t="s">
         <v>258</v>
       </c>
       <c r="H98" s="27" t="s">
@@ -3881,6 +3905,19 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="G74:I75"/>
+    <mergeCell ref="G87:I88"/>
+    <mergeCell ref="F96:F98"/>
+    <mergeCell ref="F93:F95"/>
+    <mergeCell ref="F90:F92"/>
+    <mergeCell ref="F83:F85"/>
+    <mergeCell ref="F80:F82"/>
+    <mergeCell ref="F77:F79"/>
+    <mergeCell ref="F58:I59"/>
+    <mergeCell ref="G33:I34"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="G9:I10"/>
+    <mergeCell ref="B9:D10"/>
     <mergeCell ref="A96:A98"/>
     <mergeCell ref="A1:I5"/>
     <mergeCell ref="A58:D59"/>
@@ -3897,19 +3934,6 @@
     <mergeCell ref="A80:A82"/>
     <mergeCell ref="A77:A79"/>
     <mergeCell ref="A7:I8"/>
-    <mergeCell ref="F58:I59"/>
-    <mergeCell ref="G33:I34"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="G9:I10"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="G74:I75"/>
-    <mergeCell ref="G87:I88"/>
-    <mergeCell ref="F96:F98"/>
-    <mergeCell ref="F93:F95"/>
-    <mergeCell ref="F90:F92"/>
-    <mergeCell ref="F83:F85"/>
-    <mergeCell ref="F80:F82"/>
-    <mergeCell ref="F77:F79"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
